--- a/static/assets/modelos/sorteio_novo2.xlsx
+++ b/static/assets/modelos/sorteio_novo2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drili\OneDrive\Área de Trabalho\Sorteio Novo\Django\Sorteio Novo (Django)\setup\static\assets\modelos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drili\OneDrive\Área de Trabalho\Sorteio Novo\Django\Sorteio_Novo\setup\static\assets\modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33029ABE-ED87-4941-9E9B-62630EAE3360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C275B845-893B-4850-BE2B-2C26124C948E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="1155" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,13 +48,13 @@
     <t>RESULTADO DO SORTEIO DAS VAGAS</t>
   </si>
   <si>
-    <t>CONDOMÍNIO NOVA COLINA</t>
-  </si>
-  <si>
     <t>VAGA DUPLA</t>
   </si>
   <si>
     <t>VAGAS</t>
+  </si>
+  <si>
+    <t>CONDOMÍNIO PORCELANA</t>
   </si>
 </sst>
 </file>
@@ -324,40 +324,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65:D65"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -745,54 +745,54 @@
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="15"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="21" t="s">
-        <v>7</v>
+      <c r="C7" s="17" t="s">
+        <v>9</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="14" t="s">
-        <v>9</v>
+      <c r="D9" s="14"/>
+      <c r="E9" s="12" t="s">
+        <v>8</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>8</v>
+      <c r="F9" s="14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
@@ -1121,50 +1121,69 @@
       <c r="F64" s="11"/>
     </row>
     <row r="65" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C65" s="12"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="13"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="117">
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C7:F7"/>
@@ -1189,62 +1208,43 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
